--- a/Logging_VARMLANDS_LAN/Översikt VÄRMLANDS LÄN.xlsx
+++ b/Logging_VARMLANDS_LAN/Översikt VÄRMLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45108</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45109</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45109</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45109</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45109</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45109</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>45110</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45110</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>45110</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>45110</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>45110</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>45110</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         <v>45111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>45111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>45111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>45113</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>45113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>45114</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>45114</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>45114</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>45114</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>45114</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3675,7 +3675,7 @@
         <v>45114</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         <v>45114</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>45114</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>45117</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>45117</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>45117</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>45117</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>45118</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>45118</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>45118</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>45118</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>45118</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>45118</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>45118</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>45118</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>45119</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>45119</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45119</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>45119</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45119</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>45119</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>45119</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>45120</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>45120</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>45120</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>45120</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>45120</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>45120</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>45120</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>45120</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>45121</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>45121</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>45121</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>45121</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>45121</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>45121</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>45121</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>45121</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>45121</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>45121</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>45121</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>45124</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>45124</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>45124</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>45124</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>45124</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>45124</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>45124</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>45124</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>45124</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>45124</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>45124</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>45124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>45124</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>45124</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>45124</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>45125</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>45125</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>45125</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>45125</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>45125</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>45125</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>45125</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>45125</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>45125</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>45125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>45125</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>45126</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>45126</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>45126</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>45126</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>45127</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>45127</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>45127</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>45127</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>45127</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>45127</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>45127</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>45127</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>45127</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>45128</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>45131</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>45131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>45131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>45131</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>45131</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>45131</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>45131</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>45132</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>45132</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>45132</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>45132</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>45132</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>45133</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>45133</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45137</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>45138</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>45138</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>

--- a/Logging_VARMLANDS_LAN/Översikt VÄRMLANDS LÄN.xlsx
+++ b/Logging_VARMLANDS_LAN/Översikt VÄRMLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45108</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45109</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45109</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45109</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45109</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45109</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>45110</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45110</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>45110</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>45110</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>45110</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>45110</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         <v>45111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>45111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>45111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>45113</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>45113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>45114</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>45114</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>45114</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>45114</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>45114</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3675,7 +3675,7 @@
         <v>45114</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         <v>45114</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>45114</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>45117</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>45117</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>45117</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>45117</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>45118</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>45118</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>45118</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>45118</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>45118</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>45118</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>45118</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>45118</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>45119</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>45119</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45119</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>45119</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45119</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>45119</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>45119</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>45120</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>45120</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>45120</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>45120</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>45120</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>45120</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>45120</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>45120</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>45121</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>45121</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>45121</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>45121</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>45121</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>45121</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>45121</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>45121</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>45121</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>45121</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>45121</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>45124</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>45124</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>45124</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>45124</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>45124</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>45124</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>45124</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>45124</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>45124</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>45124</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>45124</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>45124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>45124</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>45124</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>45124</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>45125</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>45125</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>45125</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>45125</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>45125</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>45125</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>45125</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>45125</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>45125</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>45125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>45125</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>45126</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>45126</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>45126</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>45126</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>45127</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>45127</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>45127</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>45127</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>45127</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>45127</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>45127</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>45127</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>45127</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>45128</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>45131</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>45131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>45131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>45131</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>45131</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>45131</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>45131</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>45132</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>45132</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>45132</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>45132</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>45132</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>45133</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>45133</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45137</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>45138</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>45138</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>

--- a/Logging_VARMLANDS_LAN/Översikt VÄRMLANDS LÄN.xlsx
+++ b/Logging_VARMLANDS_LAN/Översikt VÄRMLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45108</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45109</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45109</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45109</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45109</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45109</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>45110</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45110</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>45110</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>45110</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>45110</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>45110</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         <v>45111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>45111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>45111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>45113</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>45113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>45114</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>45114</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>45114</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>45114</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>45114</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3675,7 +3675,7 @@
         <v>45114</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         <v>45114</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>45114</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>45117</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>45117</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>45117</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>45117</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>45118</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>45118</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>45118</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>45118</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>45118</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>45118</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>45118</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>45118</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>45119</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>45119</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45119</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>45119</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45119</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>45119</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>45119</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>45120</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>45120</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>45120</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>45120</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>45120</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>45120</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>45120</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>45120</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>45121</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>45121</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>45121</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>45121</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>45121</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>45121</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>45121</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>45121</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>45121</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>45121</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>45121</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>45124</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>45124</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>45124</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>45124</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>45124</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>45124</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>45124</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>45124</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>45124</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>45124</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>45124</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>45124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>45124</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>45124</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>45124</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>45125</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>45125</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>45125</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>45125</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>45125</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>45125</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>45125</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>45125</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>45125</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>45125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>45125</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>45126</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>45126</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>45126</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>45126</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>45127</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>45127</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>45127</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>45127</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>45127</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>45127</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>45127</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>45127</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>45127</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>45128</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>45131</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>45131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>45131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>45131</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>45131</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>45131</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>45131</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>45132</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>45132</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>45132</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>45132</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>45132</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>45133</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>45133</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45137</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>45138</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>45138</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>

--- a/Logging_VARMLANDS_LAN/Översikt VÄRMLANDS LÄN.xlsx
+++ b/Logging_VARMLANDS_LAN/Översikt VÄRMLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45108</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45109</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45109</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45109</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45109</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45109</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>45110</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45110</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>45110</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>45110</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>45110</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>45110</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         <v>45111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>45111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>45111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>45113</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>45113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>45114</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>45114</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>45114</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>45114</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>45114</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3675,7 +3675,7 @@
         <v>45114</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         <v>45114</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>45114</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>45117</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>45117</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>45117</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>45117</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>45118</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>45118</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>45118</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>45118</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>45118</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>45118</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>45118</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>45118</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>45119</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>45119</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45119</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>45119</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45119</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>45119</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>45119</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>45120</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>45120</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>45120</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>45120</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>45120</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>45120</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>45120</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>45120</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>45121</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>45121</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>45121</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>45121</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>45121</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>45121</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>45121</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>45121</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>45121</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>45121</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>45121</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>45124</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>45124</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>45124</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>45124</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>45124</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>45124</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>45124</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>45124</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>45124</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>45124</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>45124</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>45124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>45124</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>45124</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>45124</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>45125</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>45125</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>45125</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>45125</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>45125</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>45125</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>45125</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>45125</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>45125</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>45125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>45125</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>45126</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>45126</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>45126</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>45126</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>45127</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>45127</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>45127</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>45127</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>45127</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>45127</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>45127</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>45127</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>45127</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>45128</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>45131</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>45131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>45131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>45131</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>45131</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>45131</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>45131</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>45132</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>45132</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>45132</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>45132</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>45132</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>45133</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>45133</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45137</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>45138</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>45138</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>

--- a/Logging_VARMLANDS_LAN/Översikt VÄRMLANDS LÄN.xlsx
+++ b/Logging_VARMLANDS_LAN/Översikt VÄRMLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45108</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45109</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45109</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45109</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45109</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45109</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>45110</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45110</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>45110</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>45110</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>45110</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>45110</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         <v>45111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>45111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>45111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>45113</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>45113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>45114</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>45114</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>45114</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>45114</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>45114</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3675,7 +3675,7 @@
         <v>45114</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         <v>45114</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>45114</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>45117</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>45117</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>45117</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>45117</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>45118</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>45118</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>45118</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>45118</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>45118</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>45118</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>45118</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>45118</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>45119</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>45119</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45119</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>45119</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45119</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>45119</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>45119</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>45120</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>45120</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>45120</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>45120</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>45120</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>45120</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>45120</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>45120</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>45121</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>45121</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>45121</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>45121</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>45121</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>45121</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>45121</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>45121</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>45121</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>45121</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>45121</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>45124</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>45124</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>45124</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>45124</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>45124</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>45124</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>45124</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>45124</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>45124</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>45124</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>45124</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>45124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>45124</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>45124</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>45124</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>45125</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>45125</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>45125</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>45125</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>45125</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>45125</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>45125</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>45125</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>45125</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>45125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>45125</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>45126</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>45126</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>45126</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>45126</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>45127</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>45127</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>45127</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>45127</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>45127</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>45127</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>45127</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>45127</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>45127</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>45128</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>45131</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>45131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>45131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>45131</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>45131</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>45131</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>45131</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>45132</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>45132</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>45132</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>45132</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>45132</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>45133</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>45133</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45137</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>45138</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>45138</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>

--- a/Logging_VARMLANDS_LAN/Översikt VÄRMLANDS LÄN.xlsx
+++ b/Logging_VARMLANDS_LAN/Översikt VÄRMLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45108</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45109</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45109</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45109</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45109</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45109</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>45110</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45110</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>45110</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>45110</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>45110</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>45110</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         <v>45111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>45111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>45111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>45113</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>45113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>45114</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>45114</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>45114</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>45114</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>45114</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3675,7 +3675,7 @@
         <v>45114</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         <v>45114</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>45114</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>45117</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>45117</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>45117</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>45117</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>45118</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>45118</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>45118</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>45118</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>45118</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>45118</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>45118</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>45118</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>45119</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>45119</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45119</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>45119</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45119</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>45119</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>45119</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>45120</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>45120</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>45120</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>45120</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>45120</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>45120</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>45120</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>45120</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>45121</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>45121</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>45121</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>45121</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>45121</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>45121</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>45121</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>45121</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>45121</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>45121</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>45121</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>45124</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>45124</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>45124</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>45124</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>45124</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>45124</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>45124</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>45124</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>45124</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>45124</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>45124</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>45124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>45124</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>45124</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>45124</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>45125</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>45125</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>45125</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>45125</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>45125</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>45125</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>45125</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>45125</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>45125</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>45125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>45125</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>45126</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>45126</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>45126</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>45126</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>45127</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>45127</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>45127</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>45127</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>45127</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>45127</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>45127</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>45127</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>45127</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>45128</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>45131</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>45131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>45131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>45131</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>45131</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>45131</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>45131</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>45132</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>45132</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>45132</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>45132</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>45132</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>45133</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>45133</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45137</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>45138</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>45138</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>

--- a/Logging_VARMLANDS_LAN/Översikt VÄRMLANDS LÄN.xlsx
+++ b/Logging_VARMLANDS_LAN/Översikt VÄRMLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45108</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45109</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45109</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45109</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45109</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45109</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>45110</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45110</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>45110</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>45110</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>45110</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>45110</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         <v>45111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>45111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>45111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>45113</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>45113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>45114</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>45114</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>45114</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>45114</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>45114</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3675,7 +3675,7 @@
         <v>45114</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         <v>45114</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>45114</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>45117</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>45117</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>45117</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>45117</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>45118</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>45118</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>45118</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>45118</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>45118</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>45118</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>45118</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>45118</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>45119</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>45119</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45119</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>45119</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45119</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>45119</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>45119</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>45120</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>45120</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>45120</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>45120</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>45120</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>45120</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>45120</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>45120</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>45121</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>45121</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>45121</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>45121</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>45121</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>45121</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>45121</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>45121</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>45121</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>45121</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>45121</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>45124</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>45124</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>45124</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>45124</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>45124</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>45124</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>45124</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>45124</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>45124</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>45124</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>45124</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>45124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>45124</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>45124</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>45124</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>45125</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>45125</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>45125</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>45125</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>45125</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>45125</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>45125</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>45125</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>45125</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>45125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>45125</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>45126</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>45126</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>45126</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>45126</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>45127</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>45127</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>45127</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>45127</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>45127</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>45127</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>45127</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>45127</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>45127</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>45128</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>45131</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>45131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>45131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>45131</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>45131</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>45131</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>45131</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>45132</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>45132</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>45132</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>45132</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>45132</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>45133</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>45133</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45137</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>45138</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>45138</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>

--- a/Logging_VARMLANDS_LAN/Översikt VÄRMLANDS LÄN.xlsx
+++ b/Logging_VARMLANDS_LAN/Översikt VÄRMLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45108</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45109</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45109</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45109</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45109</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45109</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>45110</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45110</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>45110</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>45110</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>45110</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>45110</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         <v>45111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>45111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>45111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>45113</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>45113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>45114</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>45114</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>45114</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>45114</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>45114</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3675,7 +3675,7 @@
         <v>45114</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         <v>45114</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>45114</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>45117</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>45117</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>45117</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>45117</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>45118</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>45118</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>45118</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>45118</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>45118</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>45118</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>45118</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>45118</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>45119</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>45119</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45119</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>45119</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45119</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>45119</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>45119</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>45120</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>45120</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>45120</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>45120</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>45120</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>45120</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>45120</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>45120</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>45121</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>45121</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>45121</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>45121</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>45121</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>45121</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>45121</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>45121</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>45121</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>45121</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>45121</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>45124</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>45124</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>45124</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>45124</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>45124</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>45124</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>45124</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>45124</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>45124</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>45124</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>45124</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>45124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>45124</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>45124</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>45124</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>45125</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>45125</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>45125</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>45125</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>45125</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>45125</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>45125</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>45125</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>45125</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>45125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>45125</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>45126</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>45126</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>45126</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>45126</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>45127</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>45127</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>45127</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>45127</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>45127</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>45127</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>45127</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>45127</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>45127</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>45128</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>45131</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>45131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>45131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>45131</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>45131</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>45131</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>45131</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>45132</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>45132</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>45132</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>45132</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>45132</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>45133</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>45133</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45137</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>45138</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>45138</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>

--- a/Logging_VARMLANDS_LAN/Översikt VÄRMLANDS LÄN.xlsx
+++ b/Logging_VARMLANDS_LAN/Översikt VÄRMLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45108</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45109</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45109</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45109</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45109</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45109</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>45110</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45110</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>45110</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>45110</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>45110</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>45110</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         <v>45111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>45111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>45111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>45113</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>45113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>45114</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>45114</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>45114</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>45114</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>45114</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3675,7 +3675,7 @@
         <v>45114</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         <v>45114</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>45114</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>45117</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>45117</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>45117</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>45117</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>45118</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>45118</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>45118</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>45118</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>45118</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>45118</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>45118</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>45118</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>45119</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>45119</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45119</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>45119</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45119</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>45119</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>45119</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>45120</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>45120</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>45120</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>45120</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>45120</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>45120</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>45120</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>45120</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>45121</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>45121</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>45121</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>45121</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>45121</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>45121</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>45121</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>45121</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>45121</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>45121</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>45121</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>45124</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>45124</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>45124</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>45124</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>45124</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>45124</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>45124</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>45124</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>45124</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>45124</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>45124</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>45124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>45124</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>45124</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>45124</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>45125</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>45125</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>45125</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>45125</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>45125</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>45125</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>45125</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>45125</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>45125</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>45125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>45125</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>45126</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>45126</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>45126</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>45126</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>45127</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>45127</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>45127</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>45127</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>45127</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>45127</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>45127</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>45127</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>45127</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>45128</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>45131</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>45131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>45131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>45131</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>45131</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>45131</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>45131</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>45132</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>45132</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>45132</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>45132</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>45132</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>45133</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>45133</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45137</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>45138</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>45138</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>

--- a/Logging_VARMLANDS_LAN/Översikt VÄRMLANDS LÄN.xlsx
+++ b/Logging_VARMLANDS_LAN/Översikt VÄRMLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45108</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45109</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45109</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45109</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45109</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45109</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>45110</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45110</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>45110</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>45110</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>45110</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>45110</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         <v>45111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>45111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>45111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>45113</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>45113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>45114</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>45114</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>45114</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>45114</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>45114</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3675,7 +3675,7 @@
         <v>45114</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         <v>45114</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>45114</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>45117</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>45117</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>45117</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>45117</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>45118</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>45118</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>45118</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>45118</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>45118</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>45118</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>45118</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>45118</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>45119</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>45119</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45119</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>45119</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45119</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>45119</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>45119</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>45120</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>45120</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>45120</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>45120</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>45120</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>45120</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>45120</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>45120</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>45121</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>45121</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>45121</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>45121</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>45121</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>45121</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>45121</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>45121</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>45121</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>45121</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>45121</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>45124</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>45124</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>45124</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>45124</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>45124</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>45124</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>45124</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>45124</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>45124</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>45124</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>45124</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>45124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>45124</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>45124</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>45124</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>45125</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>45125</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>45125</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>45125</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>45125</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>45125</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>45125</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>45125</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>45125</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>45125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>45125</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>45126</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>45126</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>45126</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>45126</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>45127</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>45127</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>45127</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>45127</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>45127</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>45127</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>45127</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>45127</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>45127</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>45128</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>45131</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>45131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>45131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>45131</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>45131</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>45131</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>45131</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>45132</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>45132</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>45132</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>45132</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>45132</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>45133</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>45133</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45137</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>45138</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>45138</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>

--- a/Logging_VARMLANDS_LAN/Översikt VÄRMLANDS LÄN.xlsx
+++ b/Logging_VARMLANDS_LAN/Översikt VÄRMLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45108</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45109</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45109</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45109</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45109</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45109</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>45110</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45110</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>45110</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>45110</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>45110</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>45110</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         <v>45111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>45111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>45111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>45113</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>45113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>45114</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>45114</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>45114</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>45114</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>45114</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3675,7 +3675,7 @@
         <v>45114</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         <v>45114</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>45114</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>45117</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>45117</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>45117</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>45117</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>45118</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>45118</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>45118</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>45118</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>45118</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>45118</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>45118</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>45118</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>45119</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>45119</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45119</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>45119</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45119</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>45119</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>45119</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>45120</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>45120</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>45120</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>45120</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>45120</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>45120</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>45120</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>45120</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>45121</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>45121</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>45121</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>45121</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>45121</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>45121</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>45121</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>45121</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>45121</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>45121</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>45121</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>45124</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>45124</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>45124</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>45124</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>45124</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>45124</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>45124</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>45124</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>45124</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>45124</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>45124</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>45124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>45124</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>45124</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>45124</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>45125</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>45125</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>45125</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>45125</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>45125</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>45125</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>45125</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>45125</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>45125</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>45125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>45125</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>45126</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>45126</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>45126</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>45126</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>45127</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>45127</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>45127</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>45127</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>45127</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>45127</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>45127</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>45127</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>45127</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>45128</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>45131</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>45131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>45131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>45131</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>45131</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>45131</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>45131</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>45132</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>45132</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>45132</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>45132</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>45132</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>45133</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>45133</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45137</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>45138</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>45138</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>

--- a/Logging_VARMLANDS_LAN/Översikt VÄRMLANDS LÄN.xlsx
+++ b/Logging_VARMLANDS_LAN/Översikt VÄRMLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45108</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45109</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45109</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45109</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45109</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45109</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>45110</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45110</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>45110</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>45110</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>45110</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>45110</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         <v>45111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>45111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>45111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>45113</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>45113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>45114</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>45114</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>45114</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>45114</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>45114</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3675,7 +3675,7 @@
         <v>45114</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         <v>45114</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>45114</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>45117</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>45117</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>45117</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>45117</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>45118</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>45118</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>45118</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>45118</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>45118</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>45118</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>45118</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>45118</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>45119</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>45119</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45119</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>45119</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45119</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>45119</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>45119</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>45120</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>45120</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>45120</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>45120</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>45120</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>45120</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>45120</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>45120</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>45121</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>45121</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>45121</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>45121</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>45121</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>45121</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>45121</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>45121</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>45121</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>45121</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>45121</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>45124</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>45124</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>45124</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>45124</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>45124</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>45124</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>45124</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>45124</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>45124</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>45124</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>45124</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>45124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>45124</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>45124</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>45124</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>45125</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>45125</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>45125</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>45125</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>45125</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>45125</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>45125</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>45125</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>45125</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>45125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>45125</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>45126</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>45126</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>45126</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>45126</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>45127</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>45127</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>45127</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>45127</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>45127</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>45127</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>45127</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>45127</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>45127</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>45128</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>45131</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>45131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>45131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>45131</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>45131</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>45131</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>45131</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>45132</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>45132</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>45132</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>45132</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>45132</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>45133</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>45133</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45137</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>45138</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>45138</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>

--- a/Logging_VARMLANDS_LAN/Översikt VÄRMLANDS LÄN.xlsx
+++ b/Logging_VARMLANDS_LAN/Översikt VÄRMLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45108</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45109</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45109</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45109</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45109</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45109</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>45110</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45110</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>45110</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>45110</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>45110</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>45110</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         <v>45111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>45111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>45111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>45113</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>45113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>45114</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>45114</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>45114</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>45114</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>45114</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3675,7 +3675,7 @@
         <v>45114</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         <v>45114</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>45114</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>45117</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>45117</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>45117</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>45117</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>45118</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>45118</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>45118</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>45118</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>45118</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>45118</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>45118</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>45118</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>45119</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>45119</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45119</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>45119</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45119</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>45119</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>45119</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>45120</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>45120</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>45120</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>45120</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>45120</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>45120</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>45120</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>45120</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>45121</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>45121</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>45121</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>45121</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>45121</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>45121</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>45121</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>45121</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>45121</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>45121</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>45121</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>45124</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>45124</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>45124</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>45124</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>45124</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>45124</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>45124</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>45124</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>45124</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>45124</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>45124</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>45124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>45124</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>45124</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>45124</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>45125</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>45125</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>45125</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>45125</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>45125</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>45125</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>45125</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>45125</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>45125</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>45125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>45125</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>45126</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>45126</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>45126</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>45126</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>45127</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>45127</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>45127</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>45127</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>45127</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>45127</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>45127</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>45127</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>45127</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>45128</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>45131</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>45131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>45131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>45131</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>45131</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>45131</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>45131</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>45132</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>45132</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>45132</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>45132</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>45132</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>45133</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>45133</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45137</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>45138</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>45138</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>

--- a/Logging_VARMLANDS_LAN/Översikt VÄRMLANDS LÄN.xlsx
+++ b/Logging_VARMLANDS_LAN/Översikt VÄRMLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45108</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45109</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45109</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45109</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45109</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45109</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>45110</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45110</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>45110</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>45110</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>45110</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>45110</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         <v>45111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>45111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>45111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>45113</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>45113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>45114</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>45114</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>45114</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>45114</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>45114</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3675,7 +3675,7 @@
         <v>45114</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         <v>45114</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>45114</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>45117</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>45117</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>45117</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>45117</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>45118</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>45118</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>45118</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>45118</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>45118</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>45118</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>45118</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>45118</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>45119</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>45119</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45119</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>45119</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45119</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>45119</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>45119</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>45120</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>45120</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>45120</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>45120</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>45120</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>45120</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>45120</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>45120</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>45121</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>45121</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>45121</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>45121</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>45121</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>45121</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>45121</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>45121</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>45121</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>45121</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>45121</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>45124</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>45124</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>45124</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>45124</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>45124</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>45124</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>45124</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>45124</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>45124</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>45124</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>45124</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>45124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>45124</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>45124</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>45124</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>45125</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>45125</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>45125</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>45125</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>45125</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>45125</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>45125</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>45125</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>45125</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>45125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>45125</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>45126</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>45126</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>45126</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>45126</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>45127</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>45127</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>45127</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>45127</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>45127</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>45127</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>45127</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>45127</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>45127</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>45128</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>45131</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>45131</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>45131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>45131</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>45131</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>45131</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>45131</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>45132</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>45132</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>45132</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>45132</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>45132</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>45133</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>45133</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45137</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>45138</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>45138</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
